--- a/noda/config_img.xlsx
+++ b/noda/config_img.xlsx
@@ -13,8 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Fuel" sheetId="1" r:id="rId1"/>
+    <sheet name="Oxidizer" sheetId="3" r:id="rId2"/>
+    <sheet name="N2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>X</t>
     <phoneticPr fontId="1"/>
@@ -58,15 +60,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PFa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>PFb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O1a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O1b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O1c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O2a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O2b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NRF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>RSb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -392,110 +464,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>354</v>
+      </c>
+      <c r="D2">
+        <v>354</v>
+      </c>
+      <c r="E2">
+        <v>252</v>
+      </c>
+      <c r="F2">
+        <v>665</v>
+      </c>
+      <c r="G2">
+        <v>665</v>
+      </c>
+      <c r="H2">
+        <v>665</v>
+      </c>
+      <c r="I2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>153</v>
+      </c>
+      <c r="D3">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>218</v>
+      </c>
+      <c r="F3">
+        <v>251</v>
+      </c>
+      <c r="G3">
+        <v>362</v>
+      </c>
+      <c r="H3">
+        <v>153</v>
+      </c>
+      <c r="I3">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2">
-        <v>351</v>
-      </c>
-      <c r="D2">
-        <v>351</v>
-      </c>
-      <c r="E2">
-        <v>246</v>
-      </c>
-      <c r="F2">
-        <v>662</v>
-      </c>
-      <c r="G2">
-        <v>662</v>
-      </c>
-      <c r="H2">
-        <v>536</v>
-      </c>
-      <c r="I2">
-        <v>664</v>
-      </c>
-      <c r="J2">
-        <v>664</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>185</v>
-      </c>
-      <c r="C3">
-        <v>172</v>
-      </c>
-      <c r="D3">
-        <v>46</v>
-      </c>
-      <c r="E3">
-        <v>277</v>
-      </c>
-      <c r="F3">
-        <v>173</v>
-      </c>
-      <c r="G3">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>297</v>
-      </c>
-      <c r="I3">
-        <v>297</v>
-      </c>
-      <c r="J3">
-        <v>430</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>